--- a/Assets/Charts.xlsx
+++ b/Assets/Charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/otet/Desktop/5274/TicTacReflexToe/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927C9346-4A25-C146-94CB-6F41B3203FB2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6AFD78-C1B3-EA44-9FA0-58417E70BE42}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="2" xr2:uid="{BB5D578F-EB16-2C4F-AD2A-18A8C1DCD725}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{BB5D578F-EB16-2C4F-AD2A-18A8C1DCD725}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -1477,7 +1477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E46B5BE-AADD-EE4B-B014-2E02C7B6FE88}">
   <dimension ref="B3:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -3447,7 +3447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB665B49-BF12-EB4C-ADEB-FEE991D572EE}">
   <dimension ref="B1:X59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Charts.xlsx
+++ b/Assets/Charts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/otet/Desktop/5274/TicTacReflexToe/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6AFD78-C1B3-EA44-9FA0-58417E70BE42}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECD488C0-EB4A-2C4D-A7DE-B086D4D648D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14520" xr2:uid="{BB5D578F-EB16-2C4F-AD2A-18A8C1DCD725}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="25600" windowHeight="14520" activeTab="2" xr2:uid="{BB5D578F-EB16-2C4F-AD2A-18A8C1DCD725}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="6" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="70">
   <si>
     <t>Tasks</t>
   </si>
@@ -231,6 +231,15 @@
   </si>
   <si>
     <t>SHEET TAB LINKS</t>
+  </si>
+  <si>
+    <t>1,2</t>
+  </si>
+  <si>
+    <t>1,2,3</t>
+  </si>
+  <si>
+    <t>2,3</t>
   </si>
 </sst>
 </file>
@@ -788,7 +797,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1035,15 +1044,69 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1053,68 +1116,11 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1149,11 +1155,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1477,7 +1480,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E46B5BE-AADD-EE4B-B014-2E02C7B6FE88}">
   <dimension ref="B3:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -1626,44 +1629,44 @@
     </row>
     <row r="3" spans="2:24" ht="16" thickBot="1"/>
     <row r="4" spans="2:24" s="31" customFormat="1" ht="17" customHeight="1" thickBot="1">
-      <c r="B4" s="115"/>
-      <c r="C4" s="110" t="s">
+      <c r="B4" s="107"/>
+      <c r="C4" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="110" t="s">
+      <c r="E4" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="108" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="117" t="s">
+      <c r="F4" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="121"/>
+      <c r="H4" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="119"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="112"/>
+      <c r="U4" s="113"/>
       <c r="V4" s="39"/>
       <c r="W4" s="39"/>
     </row>
     <row r="5" spans="2:24" ht="17" customHeight="1" thickBot="1">
-      <c r="B5" s="116"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="1" t="s">
         <v>41</v>
       </c>
@@ -1731,28 +1734,28 @@
       </c>
     </row>
     <row r="6" spans="2:24">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="125"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="119"/>
       <c r="W6" s="30" t="s">
         <v>38</v>
       </c>
@@ -1761,19 +1764,19 @@
       <c r="B7" s="104">
         <v>1</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="105" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="114">
+      <c r="E7" s="106">
         <v>1</v>
       </c>
-      <c r="F7" s="102">
-        <v>2</v>
-      </c>
-      <c r="G7" s="102">
+      <c r="F7" s="122">
+        <v>2</v>
+      </c>
+      <c r="G7" s="122">
         <v>2</v>
       </c>
       <c r="H7" s="50"/>
@@ -1793,13 +1796,13 @@
     </row>
     <row r="8" spans="2:24">
       <c r="B8" s="104"/>
-      <c r="C8" s="103"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="114"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
       <c r="H8" s="50"/>
       <c r="I8" s="47"/>
       <c r="J8" s="47"/>
@@ -1820,19 +1823,19 @@
         <f>1+B7</f>
         <v>2</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="105" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="114">
+      <c r="E9" s="106">
         <v>1</v>
       </c>
-      <c r="F9" s="102">
-        <v>2</v>
-      </c>
-      <c r="G9" s="102">
+      <c r="F9" s="122">
+        <v>2</v>
+      </c>
+      <c r="G9" s="122">
         <v>2</v>
       </c>
       <c r="H9" s="50"/>
@@ -1852,13 +1855,13 @@
     </row>
     <row r="10" spans="2:24" ht="17" customHeight="1" thickBot="1">
       <c r="B10" s="104"/>
-      <c r="C10" s="103"/>
+      <c r="C10" s="105"/>
       <c r="D10" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="114"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
       <c r="H10" s="50"/>
       <c r="I10" s="47"/>
       <c r="J10" s="47"/>
@@ -1873,10 +1876,10 @@
       <c r="S10" s="72"/>
       <c r="T10" s="72"/>
       <c r="U10" s="52"/>
-      <c r="W10" s="108" t="s">
+      <c r="W10" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="X10" s="109"/>
+      <c r="X10" s="121"/>
     </row>
     <row r="11" spans="2:24">
       <c r="B11" s="81"/>
@@ -1911,7 +1914,7 @@
         <f t="shared" ref="B12:B45" si="1">1+B11</f>
         <v>1</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="105" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="59" t="s">
@@ -1920,10 +1923,10 @@
       <c r="E12" s="48">
         <v>1</v>
       </c>
-      <c r="F12" s="102">
+      <c r="F12" s="122">
         <v>0.5</v>
       </c>
-      <c r="G12" s="102">
+      <c r="G12" s="122">
         <v>0.5</v>
       </c>
       <c r="H12" s="50"/>
@@ -1947,15 +1950,15 @@
     </row>
     <row r="13" spans="2:24" ht="16" thickBot="1">
       <c r="B13" s="104"/>
-      <c r="C13" s="103"/>
+      <c r="C13" s="105"/>
       <c r="D13" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E13" s="48">
         <v>1</v>
       </c>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
       <c r="H13" s="50"/>
       <c r="I13" s="47"/>
       <c r="J13" s="47"/>
@@ -1978,7 +1981,7 @@
         <f>1+B12</f>
         <v>2</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="105" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="59" t="s">
@@ -1987,10 +1990,10 @@
       <c r="E14" s="48">
         <v>1</v>
       </c>
-      <c r="F14" s="102">
+      <c r="F14" s="122">
         <v>0.5</v>
       </c>
-      <c r="G14" s="102">
+      <c r="G14" s="122">
         <v>0.5</v>
       </c>
       <c r="H14" s="50"/>
@@ -2010,15 +2013,15 @@
     </row>
     <row r="15" spans="2:24">
       <c r="B15" s="104"/>
-      <c r="C15" s="103"/>
+      <c r="C15" s="105"/>
       <c r="D15" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="48">
         <v>1</v>
       </c>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
       <c r="H15" s="50"/>
       <c r="I15" s="47"/>
       <c r="J15" s="47"/>
@@ -2039,7 +2042,7 @@
         <f>1+B14</f>
         <v>3</v>
       </c>
-      <c r="C16" s="103" t="s">
+      <c r="C16" s="105" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="59" t="s">
@@ -2048,10 +2051,10 @@
       <c r="E16" s="48">
         <v>1</v>
       </c>
-      <c r="F16" s="102">
+      <c r="F16" s="122">
         <v>4</v>
       </c>
-      <c r="G16" s="102">
+      <c r="G16" s="122">
         <v>6</v>
       </c>
       <c r="H16" s="47"/>
@@ -2071,13 +2074,13 @@
     </row>
     <row r="17" spans="2:21">
       <c r="B17" s="104"/>
-      <c r="C17" s="103"/>
+      <c r="C17" s="105"/>
       <c r="D17" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E17" s="48"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
       <c r="H17" s="47"/>
       <c r="I17" s="76"/>
       <c r="J17" s="76"/>
@@ -2098,7 +2101,7 @@
         <f>1+B16</f>
         <v>4</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="105" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="59" t="s">
@@ -2107,10 +2110,10 @@
       <c r="E18" s="48">
         <v>1</v>
       </c>
-      <c r="F18" s="102">
+      <c r="F18" s="122">
         <v>4</v>
       </c>
-      <c r="G18" s="102">
+      <c r="G18" s="122">
         <v>6</v>
       </c>
       <c r="H18" s="47"/>
@@ -2130,13 +2133,13 @@
     </row>
     <row r="19" spans="2:21">
       <c r="B19" s="104"/>
-      <c r="C19" s="103"/>
+      <c r="C19" s="105"/>
       <c r="D19" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="48"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
       <c r="H19" s="47"/>
       <c r="I19" s="76"/>
       <c r="J19" s="76"/>
@@ -2157,7 +2160,7 @@
         <f>1+B18</f>
         <v>5</v>
       </c>
-      <c r="C20" s="103" t="s">
+      <c r="C20" s="105" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="59" t="s">
@@ -2166,10 +2169,10 @@
       <c r="E20" s="48">
         <v>1</v>
       </c>
-      <c r="F20" s="102">
+      <c r="F20" s="122">
         <v>3</v>
       </c>
-      <c r="G20" s="102">
+      <c r="G20" s="122">
         <v>5</v>
       </c>
       <c r="H20" s="47"/>
@@ -2189,13 +2192,13 @@
     </row>
     <row r="21" spans="2:21">
       <c r="B21" s="104"/>
-      <c r="C21" s="103"/>
+      <c r="C21" s="105"/>
       <c r="D21" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E21" s="48"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
       <c r="H21" s="47"/>
       <c r="I21" s="76"/>
       <c r="J21" s="76"/>
@@ -2216,7 +2219,7 @@
         <f>1+B20</f>
         <v>6</v>
       </c>
-      <c r="C22" s="103" t="s">
+      <c r="C22" s="105" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="59" t="s">
@@ -2225,10 +2228,10 @@
       <c r="E22" s="48">
         <v>1</v>
       </c>
-      <c r="F22" s="102">
+      <c r="F22" s="122">
         <v>3</v>
       </c>
-      <c r="G22" s="102">
+      <c r="G22" s="122">
         <v>6</v>
       </c>
       <c r="H22" s="47"/>
@@ -2248,13 +2251,13 @@
     </row>
     <row r="23" spans="2:21">
       <c r="B23" s="104"/>
-      <c r="C23" s="103"/>
+      <c r="C23" s="105"/>
       <c r="D23" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E23" s="48"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
       <c r="J23" s="76"/>
@@ -2275,7 +2278,7 @@
         <f>1+B22</f>
         <v>7</v>
       </c>
-      <c r="C24" s="103" t="s">
+      <c r="C24" s="105" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="59" t="s">
@@ -2284,10 +2287,10 @@
       <c r="E24" s="48">
         <v>2</v>
       </c>
-      <c r="F24" s="102">
+      <c r="F24" s="122">
         <v>3</v>
       </c>
-      <c r="G24" s="102">
+      <c r="G24" s="122">
         <v>6</v>
       </c>
       <c r="H24" s="47"/>
@@ -2307,13 +2310,13 @@
     </row>
     <row r="25" spans="2:21">
       <c r="B25" s="104"/>
-      <c r="C25" s="103"/>
+      <c r="C25" s="105"/>
       <c r="D25" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="48"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
       <c r="J25" s="47"/>
@@ -2334,7 +2337,7 @@
         <f>1+B24</f>
         <v>8</v>
       </c>
-      <c r="C26" s="103" t="s">
+      <c r="C26" s="105" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="59" t="s">
@@ -2343,10 +2346,10 @@
       <c r="E26" s="48">
         <v>2</v>
       </c>
-      <c r="F26" s="102">
+      <c r="F26" s="122">
         <v>3</v>
       </c>
-      <c r="G26" s="102">
+      <c r="G26" s="122">
         <v>6</v>
       </c>
       <c r="H26" s="47"/>
@@ -2366,13 +2369,13 @@
     </row>
     <row r="27" spans="2:21">
       <c r="B27" s="104"/>
-      <c r="C27" s="103"/>
+      <c r="C27" s="105"/>
       <c r="D27" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="48"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
+      <c r="F27" s="122"/>
+      <c r="G27" s="122"/>
       <c r="H27" s="47"/>
       <c r="I27" s="47"/>
       <c r="J27" s="47"/>
@@ -2393,7 +2396,7 @@
         <f>1+B26</f>
         <v>9</v>
       </c>
-      <c r="C28" s="103" t="s">
+      <c r="C28" s="105" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="59" t="s">
@@ -2402,10 +2405,10 @@
       <c r="E28" s="48">
         <v>2</v>
       </c>
-      <c r="F28" s="102">
+      <c r="F28" s="122">
         <v>6</v>
       </c>
-      <c r="G28" s="102">
+      <c r="G28" s="122">
         <v>8</v>
       </c>
       <c r="H28" s="47"/>
@@ -2425,13 +2428,13 @@
     </row>
     <row r="29" spans="2:21">
       <c r="B29" s="104"/>
-      <c r="C29" s="103"/>
+      <c r="C29" s="105"/>
       <c r="D29" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="48"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
       <c r="H29" s="47"/>
       <c r="I29" s="47"/>
       <c r="J29" s="47"/>
@@ -2452,7 +2455,7 @@
         <f>1+B28</f>
         <v>10</v>
       </c>
-      <c r="C30" s="103" t="s">
+      <c r="C30" s="105" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="59" t="s">
@@ -2461,10 +2464,10 @@
       <c r="E30" s="48">
         <v>2</v>
       </c>
-      <c r="F30" s="102">
+      <c r="F30" s="122">
         <v>12</v>
       </c>
-      <c r="G30" s="102">
+      <c r="G30" s="122">
         <v>14</v>
       </c>
       <c r="H30" s="47"/>
@@ -2484,13 +2487,13 @@
     </row>
     <row r="31" spans="2:21">
       <c r="B31" s="104"/>
-      <c r="C31" s="103"/>
+      <c r="C31" s="105"/>
       <c r="D31" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="48"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
       <c r="H31" s="47"/>
       <c r="I31" s="47"/>
       <c r="J31" s="47"/>
@@ -2511,7 +2514,7 @@
         <f>1+B30</f>
         <v>11</v>
       </c>
-      <c r="C32" s="103" t="s">
+      <c r="C32" s="105" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="59" t="s">
@@ -2520,10 +2523,10 @@
       <c r="E32" s="48">
         <v>2</v>
       </c>
-      <c r="F32" s="102">
+      <c r="F32" s="122">
         <v>6</v>
       </c>
-      <c r="G32" s="102">
+      <c r="G32" s="122">
         <v>8</v>
       </c>
       <c r="H32" s="47"/>
@@ -2543,13 +2546,13 @@
     </row>
     <row r="33" spans="2:21">
       <c r="B33" s="104"/>
-      <c r="C33" s="103"/>
+      <c r="C33" s="105"/>
       <c r="D33" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E33" s="48"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
       <c r="H33" s="47"/>
       <c r="I33" s="47"/>
       <c r="J33" s="47"/>
@@ -2570,7 +2573,7 @@
         <f>1+B32</f>
         <v>12</v>
       </c>
-      <c r="C34" s="103" t="s">
+      <c r="C34" s="105" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="59" t="s">
@@ -2579,10 +2582,10 @@
       <c r="E34" s="48">
         <v>2</v>
       </c>
-      <c r="F34" s="102">
+      <c r="F34" s="122">
         <v>4</v>
       </c>
-      <c r="G34" s="102">
+      <c r="G34" s="122">
         <v>8</v>
       </c>
       <c r="H34" s="47"/>
@@ -2602,13 +2605,13 @@
     </row>
     <row r="35" spans="2:21">
       <c r="B35" s="104"/>
-      <c r="C35" s="103"/>
+      <c r="C35" s="105"/>
       <c r="D35" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E35" s="48"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
+      <c r="F35" s="122"/>
+      <c r="G35" s="122"/>
       <c r="H35" s="47"/>
       <c r="I35" s="47"/>
       <c r="J35" s="47"/>
@@ -2629,7 +2632,7 @@
         <f>1+B34</f>
         <v>13</v>
       </c>
-      <c r="C36" s="103" t="s">
+      <c r="C36" s="105" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="59" t="s">
@@ -2638,10 +2641,10 @@
       <c r="E36" s="48">
         <v>3</v>
       </c>
-      <c r="F36" s="102">
+      <c r="F36" s="122">
         <v>4</v>
       </c>
-      <c r="G36" s="102">
+      <c r="G36" s="122">
         <v>6</v>
       </c>
       <c r="H36" s="47"/>
@@ -2661,13 +2664,13 @@
     </row>
     <row r="37" spans="2:21">
       <c r="B37" s="104"/>
-      <c r="C37" s="103"/>
+      <c r="C37" s="105"/>
       <c r="D37" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E37" s="48"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="122"/>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
       <c r="J37" s="47"/>
@@ -2688,7 +2691,7 @@
         <f>1+B36</f>
         <v>14</v>
       </c>
-      <c r="C38" s="103" t="s">
+      <c r="C38" s="105" t="s">
         <v>34</v>
       </c>
       <c r="D38" s="59" t="s">
@@ -2697,10 +2700,10 @@
       <c r="E38" s="48">
         <v>3</v>
       </c>
-      <c r="F38" s="102">
+      <c r="F38" s="122">
         <v>4</v>
       </c>
-      <c r="G38" s="102">
+      <c r="G38" s="122">
         <v>6</v>
       </c>
       <c r="H38" s="47"/>
@@ -2720,13 +2723,13 @@
     </row>
     <row r="39" spans="2:21">
       <c r="B39" s="104"/>
-      <c r="C39" s="103"/>
+      <c r="C39" s="105"/>
       <c r="D39" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E39" s="48"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="102"/>
+      <c r="F39" s="122"/>
+      <c r="G39" s="122"/>
       <c r="H39" s="47"/>
       <c r="I39" s="47"/>
       <c r="J39" s="47"/>
@@ -2747,7 +2750,7 @@
         <f>1+B38</f>
         <v>15</v>
       </c>
-      <c r="C40" s="103" t="s">
+      <c r="C40" s="105" t="s">
         <v>35</v>
       </c>
       <c r="D40" s="59" t="s">
@@ -2756,10 +2759,10 @@
       <c r="E40" s="48">
         <v>3</v>
       </c>
-      <c r="F40" s="102">
+      <c r="F40" s="122">
         <v>4</v>
       </c>
-      <c r="G40" s="102">
+      <c r="G40" s="122">
         <v>6</v>
       </c>
       <c r="H40" s="47"/>
@@ -2779,13 +2782,13 @@
     </row>
     <row r="41" spans="2:21">
       <c r="B41" s="104"/>
-      <c r="C41" s="103"/>
+      <c r="C41" s="105"/>
       <c r="D41" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E41" s="48"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="102"/>
+      <c r="F41" s="122"/>
+      <c r="G41" s="122"/>
       <c r="H41" s="47"/>
       <c r="I41" s="47"/>
       <c r="J41" s="47"/>
@@ -2806,7 +2809,7 @@
         <f>1+B40</f>
         <v>16</v>
       </c>
-      <c r="C42" s="103" t="s">
+      <c r="C42" s="105" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="59" t="s">
@@ -2815,10 +2818,10 @@
       <c r="E42" s="48">
         <v>3</v>
       </c>
-      <c r="F42" s="102">
+      <c r="F42" s="122">
         <v>5</v>
       </c>
-      <c r="G42" s="102">
+      <c r="G42" s="122">
         <v>6</v>
       </c>
       <c r="H42" s="47"/>
@@ -2838,13 +2841,13 @@
     </row>
     <row r="43" spans="2:21">
       <c r="B43" s="104"/>
-      <c r="C43" s="103"/>
+      <c r="C43" s="105"/>
       <c r="D43" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E43" s="48"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="102"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
       <c r="H43" s="47"/>
       <c r="I43" s="47"/>
       <c r="J43" s="47"/>
@@ -2889,7 +2892,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C45" s="103" t="s">
+      <c r="C45" s="105" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="59" t="s">
@@ -2898,10 +2901,10 @@
       <c r="E45" s="48">
         <v>1</v>
       </c>
-      <c r="F45" s="102">
-        <v>2</v>
-      </c>
-      <c r="G45" s="102">
+      <c r="F45" s="122">
+        <v>2</v>
+      </c>
+      <c r="G45" s="122">
         <v>4</v>
       </c>
       <c r="H45" s="50"/>
@@ -2921,15 +2924,15 @@
     </row>
     <row r="46" spans="2:21">
       <c r="B46" s="104"/>
-      <c r="C46" s="103"/>
+      <c r="C46" s="105"/>
       <c r="D46" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E46" s="48">
         <v>2</v>
       </c>
-      <c r="F46" s="102"/>
-      <c r="G46" s="102"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="122"/>
       <c r="H46" s="47"/>
       <c r="I46" s="47"/>
       <c r="J46" s="47"/>
@@ -2950,7 +2953,7 @@
         <f>1+B45</f>
         <v>2</v>
       </c>
-      <c r="C47" s="103" t="s">
+      <c r="C47" s="105" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="59" t="s">
@@ -2959,10 +2962,10 @@
       <c r="E47" s="48">
         <v>1</v>
       </c>
-      <c r="F47" s="102">
+      <c r="F47" s="122">
         <v>3</v>
       </c>
-      <c r="G47" s="102">
+      <c r="G47" s="122">
         <v>6</v>
       </c>
       <c r="H47" s="50"/>
@@ -2982,15 +2985,15 @@
     </row>
     <row r="48" spans="2:21">
       <c r="B48" s="104"/>
-      <c r="C48" s="103"/>
+      <c r="C48" s="105"/>
       <c r="D48" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E48" s="48">
         <v>2</v>
       </c>
-      <c r="F48" s="102"/>
-      <c r="G48" s="102"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="122"/>
       <c r="H48" s="47"/>
       <c r="I48" s="47"/>
       <c r="J48" s="47"/>
@@ -3034,7 +3037,7 @@
       <c r="B50" s="104">
         <v>1</v>
       </c>
-      <c r="C50" s="103" t="s">
+      <c r="C50" s="105" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="59" t="s">
@@ -3043,10 +3046,10 @@
       <c r="E50" s="48">
         <v>1</v>
       </c>
-      <c r="F50" s="102">
+      <c r="F50" s="122">
         <v>1</v>
       </c>
-      <c r="G50" s="102">
+      <c r="G50" s="122">
         <v>2</v>
       </c>
       <c r="H50" s="47"/>
@@ -3066,15 +3069,15 @@
     </row>
     <row r="51" spans="2:24">
       <c r="B51" s="104"/>
-      <c r="C51" s="103"/>
+      <c r="C51" s="105"/>
       <c r="D51" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E51" s="48">
         <v>1</v>
       </c>
-      <c r="F51" s="102"/>
-      <c r="G51" s="102"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="122"/>
       <c r="H51" s="47"/>
       <c r="I51" s="47"/>
       <c r="J51" s="50"/>
@@ -3095,7 +3098,7 @@
         <f>1+B50</f>
         <v>2</v>
       </c>
-      <c r="C52" s="103" t="s">
+      <c r="C52" s="105" t="s">
         <v>10</v>
       </c>
       <c r="D52" s="59" t="s">
@@ -3104,10 +3107,10 @@
       <c r="E52" s="48">
         <v>2</v>
       </c>
-      <c r="F52" s="102">
-        <v>2</v>
-      </c>
-      <c r="G52" s="102">
+      <c r="F52" s="122">
+        <v>2</v>
+      </c>
+      <c r="G52" s="122">
         <v>6</v>
       </c>
       <c r="H52" s="47"/>
@@ -3127,15 +3130,15 @@
     </row>
     <row r="53" spans="2:24">
       <c r="B53" s="104"/>
-      <c r="C53" s="103"/>
+      <c r="C53" s="105"/>
       <c r="D53" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E53" s="48">
         <v>2</v>
       </c>
-      <c r="F53" s="102"/>
-      <c r="G53" s="102"/>
+      <c r="F53" s="122"/>
+      <c r="G53" s="122"/>
       <c r="H53" s="47"/>
       <c r="I53" s="47"/>
       <c r="J53" s="47"/>
@@ -3156,7 +3159,7 @@
         <f>1+B52</f>
         <v>3</v>
       </c>
-      <c r="C54" s="103" t="s">
+      <c r="C54" s="105" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="59" t="s">
@@ -3165,10 +3168,10 @@
       <c r="E54" s="48">
         <v>3</v>
       </c>
-      <c r="F54" s="102">
+      <c r="F54" s="122">
         <v>4</v>
       </c>
-      <c r="G54" s="102">
+      <c r="G54" s="122">
         <v>8</v>
       </c>
       <c r="H54" s="47"/>
@@ -3188,15 +3191,15 @@
     </row>
     <row r="55" spans="2:24">
       <c r="B55" s="104"/>
-      <c r="C55" s="103"/>
+      <c r="C55" s="105"/>
       <c r="D55" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E55" s="48">
         <v>3</v>
       </c>
-      <c r="F55" s="102"/>
-      <c r="G55" s="102"/>
+      <c r="F55" s="122"/>
+      <c r="G55" s="122"/>
       <c r="H55" s="47"/>
       <c r="I55" s="47"/>
       <c r="J55" s="47"/>
@@ -3238,7 +3241,7 @@
     </row>
     <row r="57" spans="2:24">
       <c r="B57" s="104"/>
-      <c r="C57" s="103" t="s">
+      <c r="C57" s="105" t="s">
         <v>20</v>
       </c>
       <c r="D57" s="59" t="s">
@@ -3247,10 +3250,10 @@
       <c r="E57" s="48">
         <v>3</v>
       </c>
-      <c r="F57" s="102">
+      <c r="F57" s="122">
         <v>8</v>
       </c>
-      <c r="G57" s="102">
+      <c r="G57" s="122">
         <v>10</v>
       </c>
       <c r="H57" s="47"/>
@@ -3269,16 +3272,16 @@
       <c r="U57" s="52"/>
     </row>
     <row r="58" spans="2:24" ht="16" thickBot="1">
-      <c r="B58" s="105"/>
-      <c r="C58" s="106"/>
+      <c r="B58" s="123"/>
+      <c r="C58" s="124"/>
       <c r="D58" s="59" t="s">
         <v>40</v>
       </c>
       <c r="E58" s="48">
         <v>3</v>
       </c>
-      <c r="F58" s="107"/>
-      <c r="G58" s="107"/>
+      <c r="F58" s="125"/>
+      <c r="G58" s="125"/>
       <c r="H58" s="47"/>
       <c r="I58" s="47"/>
       <c r="J58" s="47"/>
@@ -3297,12 +3300,12 @@
       <c r="X58" s="29"/>
     </row>
     <row r="59" spans="2:24" s="29" customFormat="1" ht="29" customHeight="1" thickBot="1">
-      <c r="B59" s="112" t="s">
+      <c r="B59" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="113"/>
+      <c r="C59" s="103"/>
+      <c r="D59" s="103"/>
+      <c r="E59" s="103"/>
       <c r="F59" s="73">
         <f>SUM(F7:F57)</f>
         <v>90</v>
@@ -3330,6 +3333,89 @@
     </row>
   </sheetData>
   <mergeCells count="107">
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="C40:C41"/>
     <mergeCell ref="B59:E59"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
@@ -3354,89 +3440,6 @@
     <mergeCell ref="C57:C58"/>
     <mergeCell ref="F57:F58"/>
     <mergeCell ref="G57:G58"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -3447,8 +3450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB665B49-BF12-EB4C-ADEB-FEE991D572EE}">
   <dimension ref="B1:X59"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W10" sqref="W10:X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -3532,44 +3535,44 @@
     </row>
     <row r="3" spans="2:24" ht="16" thickBot="1"/>
     <row r="4" spans="2:24" s="31" customFormat="1" ht="17" customHeight="1" thickBot="1">
-      <c r="B4" s="115"/>
-      <c r="C4" s="127" t="s">
+      <c r="B4" s="107"/>
+      <c r="C4" s="109" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="110" t="s">
+      <c r="D4" s="109" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="110" t="s">
+      <c r="E4" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="108" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="109"/>
-      <c r="H4" s="117" t="s">
+      <c r="F4" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="121"/>
+      <c r="H4" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="118"/>
-      <c r="R4" s="118"/>
-      <c r="S4" s="118"/>
-      <c r="T4" s="118"/>
-      <c r="U4" s="119"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
+      <c r="S4" s="112"/>
+      <c r="T4" s="112"/>
+      <c r="U4" s="113"/>
       <c r="V4" s="39"/>
       <c r="W4" s="39"/>
     </row>
     <row r="5" spans="2:24" ht="17" customHeight="1" thickBot="1">
-      <c r="B5" s="116"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="111"/>
-      <c r="E5" s="111"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="1" t="s">
         <v>41</v>
       </c>
@@ -3637,28 +3640,28 @@
       </c>
     </row>
     <row r="6" spans="2:24">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="123"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="124"/>
-      <c r="R6" s="124"/>
-      <c r="S6" s="124"/>
-      <c r="T6" s="124"/>
-      <c r="U6" s="125"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="117"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="118"/>
+      <c r="R6" s="118"/>
+      <c r="S6" s="118"/>
+      <c r="T6" s="118"/>
+      <c r="U6" s="119"/>
       <c r="W6" s="30" t="s">
         <v>38</v>
       </c>
@@ -3667,19 +3670,19 @@
       <c r="B7" s="104">
         <v>1</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="105" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="114">
+      <c r="E7" s="106">
         <v>1</v>
       </c>
-      <c r="F7" s="102">
-        <v>2</v>
-      </c>
-      <c r="G7" s="102">
+      <c r="F7" s="122">
+        <v>2</v>
+      </c>
+      <c r="G7" s="122">
         <v>2</v>
       </c>
       <c r="H7" s="50"/>
@@ -3699,13 +3702,13 @@
     </row>
     <row r="8" spans="2:24">
       <c r="B8" s="104"/>
-      <c r="C8" s="103"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="114"/>
-      <c r="F8" s="102"/>
-      <c r="G8" s="102"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="122"/>
+      <c r="G8" s="122"/>
       <c r="H8" s="85"/>
       <c r="I8" s="47"/>
       <c r="J8" s="47"/>
@@ -3726,19 +3729,19 @@
         <f>1+B7</f>
         <v>2</v>
       </c>
-      <c r="C9" s="103" t="s">
+      <c r="C9" s="105" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="114">
+      <c r="E9" s="106">
         <v>1</v>
       </c>
-      <c r="F9" s="102">
-        <v>2</v>
-      </c>
-      <c r="G9" s="102">
+      <c r="F9" s="122">
+        <v>2</v>
+      </c>
+      <c r="G9" s="122">
         <v>2</v>
       </c>
       <c r="H9" s="50"/>
@@ -3758,13 +3761,13 @@
     </row>
     <row r="10" spans="2:24" ht="17" customHeight="1" thickBot="1">
       <c r="B10" s="104"/>
-      <c r="C10" s="103"/>
+      <c r="C10" s="105"/>
       <c r="D10" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E10" s="114"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="102"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="122"/>
       <c r="H10" s="85"/>
       <c r="I10" s="47"/>
       <c r="J10" s="47"/>
@@ -3779,10 +3782,10 @@
       <c r="S10" s="72"/>
       <c r="T10" s="72"/>
       <c r="U10" s="52"/>
-      <c r="W10" s="108" t="s">
+      <c r="W10" s="120" t="s">
         <v>43</v>
       </c>
-      <c r="X10" s="109"/>
+      <c r="X10" s="121"/>
     </row>
     <row r="11" spans="2:24">
       <c r="B11" s="81"/>
@@ -3812,24 +3815,24 @@
       </c>
       <c r="X11" s="58"/>
     </row>
-    <row r="12" spans="2:24">
+    <row r="12" spans="2:24" ht="16" thickBot="1">
       <c r="B12" s="104">
         <f t="shared" ref="B12:B45" si="1">1+B11</f>
         <v>1</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="105" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="48">
+      <c r="E12" s="106">
         <v>1</v>
       </c>
-      <c r="F12" s="102">
+      <c r="F12" s="122">
         <v>0.5</v>
       </c>
-      <c r="G12" s="102">
+      <c r="G12" s="122">
         <v>0.5</v>
       </c>
       <c r="H12" s="50"/>
@@ -3846,20 +3849,20 @@
       <c r="S12" s="72"/>
       <c r="T12" s="72"/>
       <c r="U12" s="52"/>
-      <c r="W12" s="53" t="s">
+      <c r="W12" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="X12" s="140"/>
+      <c r="X12" s="139"/>
     </row>
     <row r="13" spans="2:24">
       <c r="B13" s="104"/>
-      <c r="C13" s="103"/>
+      <c r="C13" s="105"/>
       <c r="D13" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="48"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="102"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="122"/>
       <c r="H13" s="85"/>
       <c r="I13" s="47"/>
       <c r="J13" s="47"/>
@@ -3874,27 +3877,25 @@
       <c r="S13" s="72"/>
       <c r="T13" s="72"/>
       <c r="U13" s="52"/>
-      <c r="W13" s="53"/>
-      <c r="X13" s="52"/>
-    </row>
-    <row r="14" spans="2:24" ht="16" thickBot="1">
+    </row>
+    <row r="14" spans="2:24">
       <c r="B14" s="104">
         <f>1+B12</f>
         <v>2</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="105" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="59" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="48">
+      <c r="E14" s="106">
         <v>1</v>
       </c>
-      <c r="F14" s="102">
+      <c r="F14" s="122">
         <v>0.5</v>
       </c>
-      <c r="G14" s="102">
+      <c r="G14" s="122">
         <v>0.5</v>
       </c>
       <c r="H14" s="50"/>
@@ -3911,18 +3912,16 @@
       <c r="S14" s="72"/>
       <c r="T14" s="72"/>
       <c r="U14" s="52"/>
-      <c r="W14" s="67"/>
-      <c r="X14" s="69"/>
     </row>
     <row r="15" spans="2:24">
       <c r="B15" s="104"/>
-      <c r="C15" s="103"/>
+      <c r="C15" s="105"/>
       <c r="D15" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="48"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="122"/>
       <c r="H15" s="85"/>
       <c r="I15" s="47"/>
       <c r="J15" s="47"/>
@@ -3943,7 +3942,7 @@
         <f>1+B14</f>
         <v>3</v>
       </c>
-      <c r="C16" s="103" t="s">
+      <c r="C16" s="105" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="59" t="s">
@@ -3952,7 +3951,7 @@
       <c r="E16" s="48">
         <v>1</v>
       </c>
-      <c r="F16" s="102">
+      <c r="F16" s="122">
         <v>4</v>
       </c>
       <c r="G16" s="126">
@@ -3975,12 +3974,14 @@
     </row>
     <row r="17" spans="2:21">
       <c r="B17" s="104"/>
-      <c r="C17" s="103"/>
+      <c r="C17" s="105"/>
       <c r="D17" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="48"/>
-      <c r="F17" s="102"/>
+      <c r="E17" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="F17" s="122"/>
       <c r="G17" s="126"/>
       <c r="H17" s="47"/>
       <c r="I17" s="85"/>
@@ -4002,7 +4003,7 @@
         <f>1+B16</f>
         <v>4</v>
       </c>
-      <c r="C18" s="103" t="s">
+      <c r="C18" s="105" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="59" t="s">
@@ -4011,7 +4012,7 @@
       <c r="E18" s="48">
         <v>1</v>
       </c>
-      <c r="F18" s="102">
+      <c r="F18" s="122">
         <v>4</v>
       </c>
       <c r="G18" s="126">
@@ -4034,12 +4035,14 @@
     </row>
     <row r="19" spans="2:21">
       <c r="B19" s="104"/>
-      <c r="C19" s="103"/>
+      <c r="C19" s="105"/>
       <c r="D19" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="48"/>
-      <c r="F19" s="102"/>
+      <c r="E19" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="122"/>
       <c r="G19" s="126"/>
       <c r="H19" s="47"/>
       <c r="I19" s="85"/>
@@ -4061,7 +4064,7 @@
         <f>1+B18</f>
         <v>5</v>
       </c>
-      <c r="C20" s="103" t="s">
+      <c r="C20" s="105" t="s">
         <v>37</v>
       </c>
       <c r="D20" s="59" t="s">
@@ -4070,10 +4073,10 @@
       <c r="E20" s="48">
         <v>1</v>
       </c>
-      <c r="F20" s="102">
+      <c r="F20" s="122">
         <v>3</v>
       </c>
-      <c r="G20" s="102">
+      <c r="G20" s="122">
         <v>3</v>
       </c>
       <c r="H20" s="47"/>
@@ -4093,13 +4096,15 @@
     </row>
     <row r="21" spans="2:21">
       <c r="B21" s="104"/>
-      <c r="C21" s="103"/>
+      <c r="C21" s="105"/>
       <c r="D21" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="48"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
+      <c r="E21" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="F21" s="122"/>
+      <c r="G21" s="122"/>
       <c r="H21" s="47"/>
       <c r="I21" s="47"/>
       <c r="J21" s="47"/>
@@ -4120,7 +4125,7 @@
         <f>1+B20</f>
         <v>6</v>
       </c>
-      <c r="C22" s="103" t="s">
+      <c r="C22" s="105" t="s">
         <v>36</v>
       </c>
       <c r="D22" s="59" t="s">
@@ -4129,10 +4134,10 @@
       <c r="E22" s="48">
         <v>1</v>
       </c>
-      <c r="F22" s="102">
+      <c r="F22" s="122">
         <v>3</v>
       </c>
-      <c r="G22" s="102">
+      <c r="G22" s="122">
         <v>2</v>
       </c>
       <c r="H22" s="47"/>
@@ -4152,13 +4157,15 @@
     </row>
     <row r="23" spans="2:21">
       <c r="B23" s="104"/>
-      <c r="C23" s="103"/>
+      <c r="C23" s="105"/>
       <c r="D23" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E23" s="48"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102"/>
+      <c r="E23" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="F23" s="122"/>
+      <c r="G23" s="122"/>
       <c r="H23" s="47"/>
       <c r="I23" s="47"/>
       <c r="J23" s="47"/>
@@ -4179,7 +4186,7 @@
         <f>1+B22</f>
         <v>7</v>
       </c>
-      <c r="C24" s="103" t="s">
+      <c r="C24" s="105" t="s">
         <v>23</v>
       </c>
       <c r="D24" s="59" t="s">
@@ -4188,10 +4195,10 @@
       <c r="E24" s="48">
         <v>2</v>
       </c>
-      <c r="F24" s="102">
+      <c r="F24" s="122">
         <v>3</v>
       </c>
-      <c r="G24" s="102">
+      <c r="G24" s="122">
         <v>3</v>
       </c>
       <c r="H24" s="47"/>
@@ -4211,13 +4218,15 @@
     </row>
     <row r="25" spans="2:21">
       <c r="B25" s="104"/>
-      <c r="C25" s="103"/>
+      <c r="C25" s="105"/>
       <c r="D25" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E25" s="48"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102"/>
+      <c r="E25" s="48">
+        <v>2</v>
+      </c>
+      <c r="F25" s="122"/>
+      <c r="G25" s="122"/>
       <c r="H25" s="47"/>
       <c r="I25" s="47"/>
       <c r="J25" s="47"/>
@@ -4238,7 +4247,7 @@
         <f>1+B24</f>
         <v>8</v>
       </c>
-      <c r="C26" s="103" t="s">
+      <c r="C26" s="105" t="s">
         <v>33</v>
       </c>
       <c r="D26" s="59" t="s">
@@ -4247,10 +4256,12 @@
       <c r="E26" s="48">
         <v>2</v>
       </c>
-      <c r="F26" s="102">
+      <c r="F26" s="122">
         <v>3</v>
       </c>
-      <c r="G26" s="102"/>
+      <c r="G26" s="126">
+        <v>5</v>
+      </c>
       <c r="H26" s="47"/>
       <c r="I26" s="47"/>
       <c r="J26" s="47"/>
@@ -4268,13 +4279,15 @@
     </row>
     <row r="27" spans="2:21">
       <c r="B27" s="104"/>
-      <c r="C27" s="103"/>
+      <c r="C27" s="105"/>
       <c r="D27" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="102"/>
+      <c r="E27" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" s="122"/>
+      <c r="G27" s="126"/>
       <c r="H27" s="47"/>
       <c r="I27" s="47"/>
       <c r="J27" s="47"/>
@@ -4282,8 +4295,8 @@
       <c r="L27" s="51"/>
       <c r="M27" s="51"/>
       <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
+      <c r="O27" s="85"/>
+      <c r="P27" s="85"/>
       <c r="Q27" s="47"/>
       <c r="R27" s="47"/>
       <c r="S27" s="72"/>
@@ -4295,7 +4308,7 @@
         <f>1+B26</f>
         <v>9</v>
       </c>
-      <c r="C28" s="103" t="s">
+      <c r="C28" s="105" t="s">
         <v>29</v>
       </c>
       <c r="D28" s="59" t="s">
@@ -4304,10 +4317,10 @@
       <c r="E28" s="48">
         <v>2</v>
       </c>
-      <c r="F28" s="102">
+      <c r="F28" s="122">
         <v>6</v>
       </c>
-      <c r="G28" s="102">
+      <c r="G28" s="122">
         <v>6</v>
       </c>
       <c r="H28" s="47"/>
@@ -4327,13 +4340,15 @@
     </row>
     <row r="29" spans="2:21">
       <c r="B29" s="104"/>
-      <c r="C29" s="103"/>
+      <c r="C29" s="105"/>
       <c r="D29" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E29" s="48"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="102"/>
+      <c r="E29" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="122"/>
+      <c r="G29" s="122"/>
       <c r="H29" s="47"/>
       <c r="I29" s="85"/>
       <c r="J29" s="47"/>
@@ -4354,7 +4369,7 @@
         <f>1+B28</f>
         <v>10</v>
       </c>
-      <c r="C30" s="103" t="s">
+      <c r="C30" s="105" t="s">
         <v>31</v>
       </c>
       <c r="D30" s="59" t="s">
@@ -4363,10 +4378,12 @@
       <c r="E30" s="48">
         <v>2</v>
       </c>
-      <c r="F30" s="102">
+      <c r="F30" s="122">
         <v>12</v>
       </c>
-      <c r="G30" s="102"/>
+      <c r="G30" s="122">
+        <v>12</v>
+      </c>
       <c r="H30" s="47"/>
       <c r="I30" s="47"/>
       <c r="J30" s="47"/>
@@ -4384,13 +4401,15 @@
     </row>
     <row r="31" spans="2:21">
       <c r="B31" s="104"/>
-      <c r="C31" s="103"/>
+      <c r="C31" s="105"/>
       <c r="D31" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E31" s="48"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="102"/>
+      <c r="E31" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="F31" s="122"/>
+      <c r="G31" s="122"/>
       <c r="H31" s="47"/>
       <c r="I31" s="47"/>
       <c r="J31" s="47"/>
@@ -4398,9 +4417,9 @@
       <c r="L31" s="51"/>
       <c r="M31" s="51"/>
       <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
+      <c r="O31" s="85"/>
+      <c r="P31" s="85"/>
+      <c r="Q31" s="85"/>
       <c r="R31" s="47"/>
       <c r="S31" s="72"/>
       <c r="T31" s="72"/>
@@ -4411,7 +4430,7 @@
         <f>1+B30</f>
         <v>11</v>
       </c>
-      <c r="C32" s="103" t="s">
+      <c r="C32" s="105" t="s">
         <v>32</v>
       </c>
       <c r="D32" s="59" t="s">
@@ -4420,10 +4439,12 @@
       <c r="E32" s="48">
         <v>2</v>
       </c>
-      <c r="F32" s="102">
+      <c r="F32" s="122">
         <v>6</v>
       </c>
-      <c r="G32" s="102"/>
+      <c r="G32" s="122">
+        <v>6</v>
+      </c>
       <c r="H32" s="47"/>
       <c r="I32" s="47"/>
       <c r="J32" s="47"/>
@@ -4441,13 +4462,15 @@
     </row>
     <row r="33" spans="2:21">
       <c r="B33" s="104"/>
-      <c r="C33" s="103"/>
+      <c r="C33" s="105"/>
       <c r="D33" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="48"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="102"/>
+      <c r="E33" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="F33" s="122"/>
+      <c r="G33" s="122"/>
       <c r="H33" s="47"/>
       <c r="I33" s="47"/>
       <c r="J33" s="47"/>
@@ -4456,8 +4479,8 @@
       <c r="M33" s="51"/>
       <c r="N33" s="47"/>
       <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="47"/>
+      <c r="P33" s="85"/>
+      <c r="Q33" s="85"/>
       <c r="R33" s="47"/>
       <c r="S33" s="72"/>
       <c r="T33" s="72"/>
@@ -4468,7 +4491,7 @@
         <f>1+B32</f>
         <v>12</v>
       </c>
-      <c r="C34" s="103" t="s">
+      <c r="C34" s="105" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="59" t="s">
@@ -4477,10 +4500,12 @@
       <c r="E34" s="48">
         <v>2</v>
       </c>
-      <c r="F34" s="102">
+      <c r="F34" s="122">
         <v>4</v>
       </c>
-      <c r="G34" s="102"/>
+      <c r="G34" s="122">
+        <v>4</v>
+      </c>
       <c r="H34" s="47"/>
       <c r="I34" s="47"/>
       <c r="J34" s="47"/>
@@ -4498,13 +4523,15 @@
     </row>
     <row r="35" spans="2:21">
       <c r="B35" s="104"/>
-      <c r="C35" s="103"/>
+      <c r="C35" s="105"/>
       <c r="D35" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E35" s="48"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="102"/>
+      <c r="E35" s="48">
+        <v>2</v>
+      </c>
+      <c r="F35" s="122"/>
+      <c r="G35" s="122"/>
       <c r="H35" s="47"/>
       <c r="I35" s="47"/>
       <c r="J35" s="47"/>
@@ -4512,7 +4539,7 @@
       <c r="L35" s="51"/>
       <c r="M35" s="51"/>
       <c r="N35" s="47"/>
-      <c r="O35" s="47"/>
+      <c r="O35" s="85"/>
       <c r="P35" s="47"/>
       <c r="Q35" s="47"/>
       <c r="R35" s="47"/>
@@ -4525,7 +4552,7 @@
         <f>1+B34</f>
         <v>13</v>
       </c>
-      <c r="C36" s="103" t="s">
+      <c r="C36" s="105" t="s">
         <v>24</v>
       </c>
       <c r="D36" s="59" t="s">
@@ -4534,10 +4561,12 @@
       <c r="E36" s="48">
         <v>3</v>
       </c>
-      <c r="F36" s="102">
+      <c r="F36" s="122">
         <v>4</v>
       </c>
-      <c r="G36" s="102"/>
+      <c r="G36" s="122">
+        <v>4</v>
+      </c>
       <c r="H36" s="47"/>
       <c r="I36" s="47"/>
       <c r="J36" s="47"/>
@@ -4555,13 +4584,15 @@
     </row>
     <row r="37" spans="2:21">
       <c r="B37" s="104"/>
-      <c r="C37" s="103"/>
+      <c r="C37" s="105"/>
       <c r="D37" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E37" s="48"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="102"/>
+      <c r="E37" s="48">
+        <v>2</v>
+      </c>
+      <c r="F37" s="122"/>
+      <c r="G37" s="122"/>
       <c r="H37" s="47"/>
       <c r="I37" s="47"/>
       <c r="J37" s="47"/>
@@ -4569,7 +4600,7 @@
       <c r="L37" s="51"/>
       <c r="M37" s="51"/>
       <c r="N37" s="47"/>
-      <c r="O37" s="47"/>
+      <c r="O37" s="85"/>
       <c r="P37" s="47"/>
       <c r="Q37" s="47"/>
       <c r="R37" s="47"/>
@@ -4582,7 +4613,7 @@
         <f>1+B36</f>
         <v>14</v>
       </c>
-      <c r="C38" s="103" t="s">
+      <c r="C38" s="105" t="s">
         <v>34</v>
       </c>
       <c r="D38" s="59" t="s">
@@ -4591,10 +4622,12 @@
       <c r="E38" s="48">
         <v>3</v>
       </c>
-      <c r="F38" s="102">
+      <c r="F38" s="122">
         <v>4</v>
       </c>
-      <c r="G38" s="102"/>
+      <c r="G38" s="122">
+        <v>0</v>
+      </c>
       <c r="H38" s="47"/>
       <c r="I38" s="47"/>
       <c r="J38" s="47"/>
@@ -4612,13 +4645,15 @@
     </row>
     <row r="39" spans="2:21">
       <c r="B39" s="104"/>
-      <c r="C39" s="103"/>
+      <c r="C39" s="105"/>
       <c r="D39" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="48"/>
-      <c r="F39" s="102"/>
-      <c r="G39" s="102"/>
+      <c r="E39" s="48">
+        <v>0</v>
+      </c>
+      <c r="F39" s="122"/>
+      <c r="G39" s="122"/>
       <c r="H39" s="47"/>
       <c r="I39" s="47"/>
       <c r="J39" s="47"/>
@@ -4627,8 +4662,8 @@
       <c r="M39" s="51"/>
       <c r="N39" s="47"/>
       <c r="O39" s="47"/>
-      <c r="P39" s="47"/>
-      <c r="Q39" s="47"/>
+      <c r="P39" s="85"/>
+      <c r="Q39" s="85"/>
       <c r="R39" s="47"/>
       <c r="S39" s="72"/>
       <c r="T39" s="72"/>
@@ -4639,7 +4674,7 @@
         <f>1+B38</f>
         <v>15</v>
       </c>
-      <c r="C40" s="103" t="s">
+      <c r="C40" s="105" t="s">
         <v>35</v>
       </c>
       <c r="D40" s="59" t="s">
@@ -4648,10 +4683,12 @@
       <c r="E40" s="48">
         <v>3</v>
       </c>
-      <c r="F40" s="102">
+      <c r="F40" s="122">
         <v>4</v>
       </c>
-      <c r="G40" s="102"/>
+      <c r="G40" s="122">
+        <v>0</v>
+      </c>
       <c r="H40" s="47"/>
       <c r="I40" s="47"/>
       <c r="J40" s="47"/>
@@ -4669,13 +4706,15 @@
     </row>
     <row r="41" spans="2:21">
       <c r="B41" s="104"/>
-      <c r="C41" s="103"/>
+      <c r="C41" s="105"/>
       <c r="D41" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E41" s="48"/>
-      <c r="F41" s="102"/>
-      <c r="G41" s="102"/>
+      <c r="E41" s="48">
+        <v>0</v>
+      </c>
+      <c r="F41" s="122"/>
+      <c r="G41" s="122"/>
       <c r="H41" s="47"/>
       <c r="I41" s="47"/>
       <c r="J41" s="47"/>
@@ -4696,7 +4735,7 @@
         <f>1+B40</f>
         <v>16</v>
       </c>
-      <c r="C42" s="103" t="s">
+      <c r="C42" s="105" t="s">
         <v>30</v>
       </c>
       <c r="D42" s="59" t="s">
@@ -4705,10 +4744,12 @@
       <c r="E42" s="48">
         <v>3</v>
       </c>
-      <c r="F42" s="102">
+      <c r="F42" s="122">
         <v>5</v>
       </c>
-      <c r="G42" s="102"/>
+      <c r="G42" s="122">
+        <v>5</v>
+      </c>
       <c r="H42" s="47"/>
       <c r="I42" s="47"/>
       <c r="J42" s="47"/>
@@ -4726,15 +4767,15 @@
     </row>
     <row r="43" spans="2:21">
       <c r="B43" s="104"/>
-      <c r="C43" s="103"/>
+      <c r="C43" s="105"/>
       <c r="D43" s="59" t="s">
         <v>45</v>
       </c>
       <c r="E43" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="F43" s="102"/>
-      <c r="G43" s="102"/>
+      <c r="F43" s="122"/>
+      <c r="G43" s="122"/>
       <c r="H43" s="47"/>
       <c r="I43" s="85"/>
       <c r="J43" s="47"/>
@@ -4779,7 +4820,7 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="C45" s="103" t="s">
+      <c r="C45" s="105" t="s">
         <v>14</v>
       </c>
       <c r="D45" s="59" t="s">
@@ -4788,10 +4829,10 @@
       <c r="E45" s="48">
         <v>1</v>
       </c>
-      <c r="F45" s="102">
-        <v>2</v>
-      </c>
-      <c r="G45" s="102">
+      <c r="F45" s="122">
+        <v>2</v>
+      </c>
+      <c r="G45" s="122">
         <v>2</v>
       </c>
       <c r="H45" s="50"/>
@@ -4811,15 +4852,15 @@
     </row>
     <row r="46" spans="2:21">
       <c r="B46" s="104"/>
-      <c r="C46" s="103"/>
+      <c r="C46" s="105"/>
       <c r="D46" s="59" t="s">
         <v>45</v>
       </c>
       <c r="E46" s="48">
         <v>2</v>
       </c>
-      <c r="F46" s="102"/>
-      <c r="G46" s="102"/>
+      <c r="F46" s="122"/>
+      <c r="G46" s="122"/>
       <c r="H46" s="47"/>
       <c r="I46" s="47"/>
       <c r="J46" s="47"/>
@@ -4840,7 +4881,7 @@
         <f>1+B45</f>
         <v>2</v>
       </c>
-      <c r="C47" s="103" t="s">
+      <c r="C47" s="105" t="s">
         <v>19</v>
       </c>
       <c r="D47" s="59" t="s">
@@ -4849,10 +4890,10 @@
       <c r="E47" s="48">
         <v>1</v>
       </c>
-      <c r="F47" s="102">
+      <c r="F47" s="122">
         <v>3</v>
       </c>
-      <c r="G47" s="102">
+      <c r="G47" s="122">
         <v>3</v>
       </c>
       <c r="H47" s="50"/>
@@ -4872,15 +4913,15 @@
     </row>
     <row r="48" spans="2:21">
       <c r="B48" s="104"/>
-      <c r="C48" s="103"/>
+      <c r="C48" s="105"/>
       <c r="D48" s="59" t="s">
         <v>45</v>
       </c>
       <c r="E48" s="48">
         <v>2</v>
       </c>
-      <c r="F48" s="102"/>
-      <c r="G48" s="102"/>
+      <c r="F48" s="122"/>
+      <c r="G48" s="122"/>
       <c r="H48" s="47"/>
       <c r="I48" s="47"/>
       <c r="J48" s="47"/>
@@ -4896,7 +4937,7 @@
       <c r="T48" s="72"/>
       <c r="U48" s="52"/>
     </row>
-    <row r="49" spans="2:21">
+    <row r="49" spans="2:24">
       <c r="B49" s="81"/>
       <c r="C49" s="84" t="s">
         <v>8</v>
@@ -4920,11 +4961,11 @@
       <c r="T49" s="72"/>
       <c r="U49" s="57"/>
     </row>
-    <row r="50" spans="2:21">
+    <row r="50" spans="2:24">
       <c r="B50" s="104">
         <v>1</v>
       </c>
-      <c r="C50" s="103" t="s">
+      <c r="C50" s="105" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="59" t="s">
@@ -4933,10 +4974,10 @@
       <c r="E50" s="48">
         <v>1</v>
       </c>
-      <c r="F50" s="102">
+      <c r="F50" s="122">
         <v>1</v>
       </c>
-      <c r="G50" s="102">
+      <c r="G50" s="122">
         <v>1</v>
       </c>
       <c r="H50" s="47"/>
@@ -4954,17 +4995,17 @@
       <c r="T50" s="72"/>
       <c r="U50" s="52"/>
     </row>
-    <row r="51" spans="2:21">
+    <row r="51" spans="2:24">
       <c r="B51" s="104"/>
-      <c r="C51" s="103"/>
+      <c r="C51" s="105"/>
       <c r="D51" s="59" t="s">
         <v>45</v>
       </c>
       <c r="E51" s="48">
         <v>1</v>
       </c>
-      <c r="F51" s="102"/>
-      <c r="G51" s="102"/>
+      <c r="F51" s="122"/>
+      <c r="G51" s="122"/>
       <c r="H51" s="47"/>
       <c r="I51" s="47"/>
       <c r="J51" s="85"/>
@@ -4980,12 +5021,12 @@
       <c r="T51" s="72"/>
       <c r="U51" s="52"/>
     </row>
-    <row r="52" spans="2:21">
+    <row r="52" spans="2:24">
       <c r="B52" s="104">
         <f>1+B50</f>
         <v>2</v>
       </c>
-      <c r="C52" s="103" t="s">
+      <c r="C52" s="105" t="s">
         <v>10</v>
       </c>
       <c r="D52" s="59" t="s">
@@ -4994,10 +5035,10 @@
       <c r="E52" s="48">
         <v>2</v>
       </c>
-      <c r="F52" s="102">
-        <v>2</v>
-      </c>
-      <c r="G52" s="102">
+      <c r="F52" s="122">
+        <v>2</v>
+      </c>
+      <c r="G52" s="122">
         <v>2</v>
       </c>
       <c r="H52" s="47"/>
@@ -5015,17 +5056,17 @@
       <c r="T52" s="72"/>
       <c r="U52" s="52"/>
     </row>
-    <row r="53" spans="2:21">
+    <row r="53" spans="2:24">
       <c r="B53" s="104"/>
-      <c r="C53" s="103"/>
+      <c r="C53" s="105"/>
       <c r="D53" s="59" t="s">
         <v>45</v>
       </c>
       <c r="E53" s="48">
         <v>2</v>
       </c>
-      <c r="F53" s="102"/>
-      <c r="G53" s="102"/>
+      <c r="F53" s="122"/>
+      <c r="G53" s="122"/>
       <c r="H53" s="47"/>
       <c r="I53" s="47"/>
       <c r="J53" s="47"/>
@@ -5041,12 +5082,12 @@
       <c r="T53" s="72"/>
       <c r="U53" s="52"/>
     </row>
-    <row r="54" spans="2:21">
+    <row r="54" spans="2:24">
       <c r="B54" s="104">
         <f>1+B52</f>
         <v>3</v>
       </c>
-      <c r="C54" s="103" t="s">
+      <c r="C54" s="105" t="s">
         <v>11</v>
       </c>
       <c r="D54" s="59" t="s">
@@ -5055,10 +5096,12 @@
       <c r="E54" s="48">
         <v>3</v>
       </c>
-      <c r="F54" s="102">
+      <c r="F54" s="122">
         <v>4</v>
       </c>
-      <c r="G54" s="102"/>
+      <c r="G54" s="126">
+        <v>6</v>
+      </c>
       <c r="H54" s="47"/>
       <c r="I54" s="47"/>
       <c r="J54" s="47"/>
@@ -5074,17 +5117,17 @@
       <c r="T54" s="72"/>
       <c r="U54" s="52"/>
     </row>
-    <row r="55" spans="2:21">
+    <row r="55" spans="2:24">
       <c r="B55" s="104"/>
-      <c r="C55" s="103"/>
+      <c r="C55" s="105"/>
       <c r="D55" s="59" t="s">
         <v>45</v>
       </c>
       <c r="E55" s="48">
         <v>3</v>
       </c>
-      <c r="F55" s="102"/>
-      <c r="G55" s="102"/>
+      <c r="F55" s="122"/>
+      <c r="G55" s="126"/>
       <c r="H55" s="47"/>
       <c r="I55" s="47"/>
       <c r="J55" s="47"/>
@@ -5094,13 +5137,13 @@
       <c r="N55" s="47"/>
       <c r="O55" s="47"/>
       <c r="P55" s="47"/>
-      <c r="Q55" s="47"/>
-      <c r="R55" s="47"/>
+      <c r="Q55" s="85"/>
+      <c r="R55" s="85"/>
       <c r="S55" s="72"/>
       <c r="T55" s="72"/>
       <c r="U55" s="52"/>
     </row>
-    <row r="56" spans="2:21">
+    <row r="56" spans="2:24">
       <c r="B56" s="81"/>
       <c r="C56" s="84" t="s">
         <v>13</v>
@@ -5124,9 +5167,9 @@
       <c r="T56" s="72"/>
       <c r="U56" s="57"/>
     </row>
-    <row r="57" spans="2:21">
+    <row r="57" spans="2:24">
       <c r="B57" s="104"/>
-      <c r="C57" s="103" t="s">
+      <c r="C57" s="105" t="s">
         <v>20</v>
       </c>
       <c r="D57" s="59" t="s">
@@ -5135,11 +5178,11 @@
       <c r="E57" s="48">
         <v>3</v>
       </c>
-      <c r="F57" s="102">
+      <c r="F57" s="122">
         <v>8</v>
       </c>
       <c r="G57" s="126">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H57" s="47"/>
       <c r="I57" s="47"/>
@@ -5155,18 +5198,20 @@
       <c r="S57" s="72"/>
       <c r="T57" s="72"/>
       <c r="U57" s="52"/>
-    </row>
-    <row r="58" spans="2:21" ht="16" thickBot="1">
-      <c r="B58" s="105"/>
-      <c r="C58" s="106"/>
+      <c r="W57" s="29"/>
+      <c r="X57" s="29"/>
+    </row>
+    <row r="58" spans="2:24" ht="16" thickBot="1">
+      <c r="B58" s="123"/>
+      <c r="C58" s="124"/>
       <c r="D58" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E58" s="48">
-        <v>3</v>
-      </c>
-      <c r="F58" s="107"/>
-      <c r="G58" s="141"/>
+      <c r="E58" s="48" t="s">
+        <v>68</v>
+      </c>
+      <c r="F58" s="125"/>
+      <c r="G58" s="127"/>
       <c r="H58" s="47"/>
       <c r="I58" s="47"/>
       <c r="J58" s="85"/>
@@ -5176,26 +5221,26 @@
       <c r="N58" s="85"/>
       <c r="O58" s="85"/>
       <c r="P58" s="47"/>
-      <c r="Q58" s="47"/>
-      <c r="R58" s="47"/>
-      <c r="S58" s="72"/>
+      <c r="Q58" s="85"/>
+      <c r="R58" s="85"/>
+      <c r="S58" s="85"/>
       <c r="T58" s="72"/>
       <c r="U58" s="52"/>
     </row>
-    <row r="59" spans="2:21" s="29" customFormat="1" ht="29" customHeight="1" thickBot="1">
-      <c r="B59" s="112" t="s">
+    <row r="59" spans="2:24" s="29" customFormat="1" ht="29" customHeight="1" thickBot="1">
+      <c r="B59" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="C59" s="113"/>
-      <c r="D59" s="113"/>
-      <c r="E59" s="113"/>
+      <c r="C59" s="103"/>
+      <c r="D59" s="103"/>
+      <c r="E59" s="103"/>
       <c r="F59" s="73">
         <f>SUM(F7:F57)</f>
         <v>90</v>
       </c>
       <c r="G59" s="73">
         <f>SUM(G7:G58)</f>
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="H59" s="74"/>
       <c r="I59" s="74"/>
@@ -5211,43 +5256,68 @@
       <c r="S59" s="74"/>
       <c r="T59" s="74"/>
       <c r="U59" s="75"/>
+      <c r="W59" s="30"/>
+      <c r="X59" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="107">
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:U4"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="W10:X10"/>
-    <mergeCell ref="B6:U6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
+  <mergeCells count="109">
+    <mergeCell ref="B59:E59"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="B50:B51"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="F50:F51"/>
+    <mergeCell ref="G50:G51"/>
+    <mergeCell ref="B52:B53"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="C24:C25"/>
     <mergeCell ref="F24:F25"/>
@@ -5264,63 +5334,42 @@
     <mergeCell ref="C22:C23"/>
     <mergeCell ref="F22:F23"/>
     <mergeCell ref="G22:G23"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="F50:F51"/>
-    <mergeCell ref="G50:G51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:C46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="B59:E59"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="W10:X10"/>
+    <mergeCell ref="B6:U6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:U4"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -5495,39 +5544,39 @@
     </row>
     <row r="3" spans="2:19" ht="16" thickBot="1"/>
     <row r="4" spans="2:19" s="31" customFormat="1" ht="16" thickBot="1">
-      <c r="B4" s="110"/>
-      <c r="C4" s="110" t="s">
+      <c r="B4" s="109"/>
+      <c r="C4" s="109" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="62"/>
-      <c r="E4" s="110" t="s">
+      <c r="E4" s="109" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="110" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="117" t="s">
+      <c r="F4" s="109" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="111" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="118"/>
-      <c r="I4" s="118"/>
-      <c r="J4" s="118"/>
-      <c r="K4" s="118"/>
-      <c r="L4" s="118"/>
-      <c r="M4" s="118"/>
-      <c r="N4" s="118"/>
-      <c r="O4" s="118"/>
-      <c r="P4" s="118"/>
-      <c r="Q4" s="119"/>
+      <c r="H4" s="112"/>
+      <c r="I4" s="112"/>
+      <c r="J4" s="112"/>
+      <c r="K4" s="112"/>
+      <c r="L4" s="112"/>
+      <c r="M4" s="112"/>
+      <c r="N4" s="112"/>
+      <c r="O4" s="112"/>
+      <c r="P4" s="112"/>
+      <c r="Q4" s="113"/>
       <c r="R4" s="39"/>
       <c r="S4" s="39"/>
     </row>
     <row r="5" spans="2:19" ht="16" thickBot="1">
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
+      <c r="B5" s="110"/>
+      <c r="C5" s="110"/>
       <c r="D5" s="63"/>
-      <c r="E5" s="111"/>
-      <c r="F5" s="131"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="130"/>
       <c r="G5" s="40" t="str">
         <f>TEXT(G1,"mm-dd")</f>
         <v>08-11</v>
@@ -5577,24 +5626,24 @@
       </c>
     </row>
     <row r="6" spans="2:19">
-      <c r="B6" s="120" t="s">
+      <c r="B6" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="124"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="124"/>
-      <c r="L6" s="124"/>
-      <c r="M6" s="124"/>
-      <c r="N6" s="124"/>
-      <c r="O6" s="124"/>
-      <c r="P6" s="124"/>
-      <c r="Q6" s="125"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="116"/>
+      <c r="G6" s="118"/>
+      <c r="H6" s="118"/>
+      <c r="I6" s="118"/>
+      <c r="J6" s="118"/>
+      <c r="K6" s="118"/>
+      <c r="L6" s="118"/>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="119"/>
       <c r="S6" s="30" t="s">
         <v>38</v>
       </c>
@@ -5603,7 +5652,7 @@
       <c r="B7" s="104">
         <v>1</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="105" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="64" t="s">
@@ -5629,7 +5678,7 @@
     </row>
     <row r="8" spans="2:19">
       <c r="B8" s="104"/>
-      <c r="C8" s="103"/>
+      <c r="C8" s="105"/>
       <c r="D8" s="64" t="s">
         <v>40</v>
       </c>
@@ -6345,12 +6394,12 @@
       <c r="Q35" s="58"/>
     </row>
     <row r="36" spans="2:17" s="29" customFormat="1" ht="29" customHeight="1" thickBot="1">
-      <c r="B36" s="129" t="s">
+      <c r="B36" s="128" t="s">
         <v>18</v>
       </c>
-      <c r="C36" s="130"/>
-      <c r="D36" s="130"/>
-      <c r="E36" s="130"/>
+      <c r="C36" s="129"/>
+      <c r="D36" s="129"/>
+      <c r="E36" s="129"/>
       <c r="F36" s="26">
         <f>SUM(F7:F35)</f>
         <v>90</v>
@@ -6403,19 +6452,19 @@
   <sheetData>
     <row r="5" spans="3:7" ht="16" thickBot="1"/>
     <row r="6" spans="3:7" s="9" customFormat="1">
-      <c r="C6" s="135"/>
-      <c r="D6" s="132" t="s">
+      <c r="C6" s="134"/>
+      <c r="D6" s="131" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="132" t="s">
+      <c r="E6" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="132"/>
-      <c r="G6" s="134"/>
+      <c r="F6" s="131"/>
+      <c r="G6" s="133"/>
     </row>
     <row r="7" spans="3:7" ht="16" thickBot="1">
-      <c r="C7" s="136"/>
-      <c r="D7" s="133"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="132"/>
       <c r="E7" s="12">
         <v>1</v>
       </c>
@@ -6467,20 +6516,20 @@
       <c r="D12" s="17">
         <v>44058</v>
       </c>
-      <c r="E12" s="137" t="s">
+      <c r="E12" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="138"/>
-      <c r="G12" s="139"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="138"/>
     </row>
     <row r="13" spans="3:7">
       <c r="C13" s="5"/>
       <c r="D13" s="17">
         <v>44059</v>
       </c>
-      <c r="E13" s="137"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="139"/>
+      <c r="E13" s="136"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="138"/>
     </row>
     <row r="14" spans="3:7">
       <c r="C14" s="2"/>
@@ -6532,20 +6581,20 @@
       <c r="D19" s="21">
         <v>44065</v>
       </c>
-      <c r="E19" s="137" t="s">
+      <c r="E19" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="F19" s="138"/>
-      <c r="G19" s="139"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="138"/>
     </row>
     <row r="20" spans="3:7">
       <c r="C20" s="20"/>
       <c r="D20" s="21">
         <v>44066</v>
       </c>
-      <c r="E20" s="137"/>
-      <c r="F20" s="138"/>
-      <c r="G20" s="139"/>
+      <c r="E20" s="136"/>
+      <c r="F20" s="137"/>
+      <c r="G20" s="138"/>
     </row>
     <row r="21" spans="3:7" ht="16" thickBot="1">
       <c r="C21" s="11"/>
@@ -6569,21 +6618,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010057FA2577A0D43B4EBABAC02F4C445D74" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="c0cf870515d1a03ba408a488d0882fba">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="e1163e26-ff52-4144-aa72-3b94dd9a9672" xmlns:ns3="ea06f119-4b32-420d-a80b-47fb3ef01827" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="c55baa32c9a08e3c281d22f47332c2bd" ns2:_="" ns3:_="">
     <xsd:import namespace="e1163e26-ff52-4144-aa72-3b94dd9a9672"/>
@@ -6762,32 +6796,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FB79775-F48E-42DD-A52C-5894953D97DB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="e1163e26-ff52-4144-aa72-3b94dd9a9672"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ea06f119-4b32-420d-a80b-47fb3ef01827"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{232D097D-819C-46A6-A1AA-E9D435069A84}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{47EAEB67-9EEB-41FE-A13A-A88D6B5068B4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6804,4 +6828,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{232D097D-819C-46A6-A1AA-E9D435069A84}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6FB79775-F48E-42DD-A52C-5894953D97DB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="e1163e26-ff52-4144-aa72-3b94dd9a9672"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ea06f119-4b32-420d-a80b-47fb3ef01827"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>